--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_25_9.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_25_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1248353.610633747</v>
+        <v>-1250909.926460997</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673429</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>12.27673055432601</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>56.95878470060131</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414544</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -814,25 +814,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>116.6411271505002</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>34.45096315976995</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>56.30504541789065</v>
+        <v>28.59894210588519</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>14.42881909501659</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>49.87303154284971</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1032,7 +1032,7 @@
         <v>225.7871683969286</v>
       </c>
       <c r="V6" t="n">
-        <v>232.800587149425</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>166.170716434393</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,7 +1063,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,19 +1108,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>100.2063103874223</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>169.5799223726287</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>170.7304930065926</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>115.0138334144191</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1342,10 +1342,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>107.0704956909093</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>65.67353929277157</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,13 +1576,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>217.8886059122772</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1661,13 +1661,13 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>90.00079239153432</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>41.55695577161153</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -2002,7 +2002,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2011,16 +2011,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,10 +2050,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>121.3986907513285</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>132.6315337216688</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2251,10 +2251,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2384,7 +2384,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2476,25 +2476,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>115.2302178375793</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2713,22 +2713,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2798,7 +2798,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722609</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2947,13 +2947,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>41.33703994142962</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2968,7 +2968,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3010,7 +3010,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>229.2938944146487</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3080,7 +3080,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3190,7 +3190,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261729</v>
       </c>
       <c r="E34" t="n">
         <v>122.1493151545295</v>
@@ -3199,13 +3199,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H34" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,10 +3427,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3661,25 +3661,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652587</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808202</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3715,7 +3715,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V40" t="n">
         <v>227.8529958317883</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3749,7 +3749,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417126</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3958,7 +3958,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X43" t="n">
         <v>201.4250078969974</v>
@@ -4138,10 +4138,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4195,7 +4195,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1308.370295943748</v>
+        <v>921.7704558796252</v>
       </c>
       <c r="C2" t="n">
-        <v>1308.370295943748</v>
+        <v>909.3697179459625</v>
       </c>
       <c r="D2" t="n">
-        <v>950.1045973369978</v>
+        <v>909.3697179459625</v>
       </c>
       <c r="E2" t="n">
-        <v>950.1045973369978</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="F2" t="n">
-        <v>539.1186925473903</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>124.0462423923868</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.97538618064</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.50962791956</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943748</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811091</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999821</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387309</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332754</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601604</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>936.573581468607</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064547</v>
+        <v>846.0716871064745</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>827.0643955080125</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>920.7416649986299</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158134</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125857</v>
+        <v>3325.461468201685</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619337</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>380.4321398396067</v>
+        <v>482.3611697809529</v>
       </c>
       <c r="C4" t="n">
-        <v>380.4321398396067</v>
+        <v>482.3611697809529</v>
       </c>
       <c r="D4" t="n">
-        <v>380.4321398396067</v>
+        <v>332.2445303686171</v>
       </c>
       <c r="E4" t="n">
-        <v>380.4321398396067</v>
+        <v>184.331436786224</v>
       </c>
       <c r="F4" t="n">
-        <v>380.4321398396067</v>
+        <v>184.331436786224</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143257</v>
+        <v>184.331436786224</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S4" t="n">
-        <v>886.0880531315487</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T4" t="n">
-        <v>829.2142698811541</v>
+        <v>891.99918550921</v>
       </c>
       <c r="U4" t="n">
-        <v>829.2142698811541</v>
+        <v>891.99918550921</v>
       </c>
       <c r="V4" t="n">
-        <v>829.2142698811541</v>
+        <v>891.99918550921</v>
       </c>
       <c r="W4" t="n">
-        <v>829.2142698811541</v>
+        <v>891.99918550921</v>
       </c>
       <c r="X4" t="n">
-        <v>601.2247189831368</v>
+        <v>664.0096346111926</v>
       </c>
       <c r="Y4" t="n">
-        <v>380.4321398396067</v>
+        <v>664.0096346111926</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1261.532988317206</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C5" t="n">
-        <v>892.5704713767946</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D5" t="n">
-        <v>892.5704713767946</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>892.5704713767946</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F5" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218343</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3311.03125686673</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3311.03125686673</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>3057.500780140566</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>3057.500780140566</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.97538618064</v>
+        <v>2704.732124870452</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.50962791956</v>
+        <v>2331.266366609372</v>
       </c>
       <c r="Y5" t="n">
-        <v>1648.132828381328</v>
+        <v>1941.127034633561</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064538</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>530.2513404403938</v>
+        <v>382.2744185341654</v>
       </c>
       <c r="C7" t="n">
-        <v>361.3151575124869</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="D7" t="n">
-        <v>361.3151575124869</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E7" t="n">
-        <v>213.4020639300938</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K7" t="n">
         <v>176.6457242372933</v>
@@ -4732,43 +4732,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>920.887005818185</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S7" t="n">
-        <v>920.887005818185</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="T7" t="n">
-        <v>920.887005818185</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="U7" t="n">
-        <v>819.6685104773544</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="V7" t="n">
-        <v>819.6685104773544</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="W7" t="n">
-        <v>530.2513404403938</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="X7" t="n">
-        <v>530.2513404403938</v>
+        <v>603.0669976776956</v>
       </c>
       <c r="Y7" t="n">
-        <v>530.2513404403938</v>
+        <v>382.2744185341654</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1698.50962791956</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C8" t="n">
-        <v>1329.547110979148</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D8" t="n">
-        <v>971.2814123723979</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
-        <v>585.4931597741536</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>578.5476590249501</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794325</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450754</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.97538618064</v>
+        <v>2609.016021139987</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.50962791956</v>
+        <v>2609.016021139987</v>
       </c>
       <c r="Y8" t="n">
-        <v>1698.50962791956</v>
+        <v>2218.876689164175</v>
       </c>
     </row>
     <row r="9">
@@ -4878,16 +4878,16 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031473</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="C10" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962291</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588485</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886961</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O10" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181855</v>
+        <v>812.7349899687815</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181855</v>
+        <v>523.6321230944251</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181855</v>
+        <v>523.6321230944251</v>
       </c>
       <c r="W10" t="n">
-        <v>631.4698357812249</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="X10" t="n">
-        <v>403.4802848832076</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="Y10" t="n">
-        <v>182.6877057396775</v>
+        <v>234.2149530574644</v>
       </c>
     </row>
     <row r="11">
@@ -5015,46 +5015,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5066,25 +5066,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5194,16 +5194,16 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5224,25 +5224,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.96308358026</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>2157.887856924458</v>
+        <v>1824.417283336614</v>
       </c>
       <c r="V13" t="n">
-        <v>1903.203368718571</v>
+        <v>1569.732795130727</v>
       </c>
       <c r="W13" t="n">
-        <v>1613.786198681611</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="X13" t="n">
-        <v>1385.796647783593</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y13" t="n">
-        <v>1165.004068640063</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5273,16 +5273,16 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014778</v>
@@ -5291,10 +5291,10 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852254</v>
@@ -5309,10 +5309,10 @@
         <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
         <v>3467.980956852889</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>93.81666304797186</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>691.1951506745237</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876688</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C16" t="n">
-        <v>580.8993044876688</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D16" t="n">
-        <v>489.9894131830887</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E16" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797186</v>
@@ -5461,25 +5461,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614387</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179085</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="17">
@@ -5519,16 +5519,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>641.1291986799072</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C19" t="n">
-        <v>641.1291986799072</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D19" t="n">
-        <v>491.0125592675714</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E19" t="n">
-        <v>343.0994656851783</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5698,25 +5698,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2324.338143427403</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>2104.736678450344</v>
+        <v>2312.991837396757</v>
       </c>
       <c r="U19" t="n">
-        <v>1815.661451794542</v>
+        <v>2023.916610740955</v>
       </c>
       <c r="V19" t="n">
-        <v>1560.976963588655</v>
+        <v>1769.232122535068</v>
       </c>
       <c r="W19" t="n">
-        <v>1271.559793551694</v>
+        <v>1479.814952498107</v>
       </c>
       <c r="X19" t="n">
-        <v>1043.570242653677</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="Y19" t="n">
-        <v>822.7776635101469</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5783,19 +5783,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5899,7 +5899,7 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5966,28 +5966,28 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362692</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6002,34 +6002,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362683</v>
@@ -6221,13 +6221,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6239,7 +6239,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6361,19 +6361,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6482,31 +6482,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6534,28 +6534,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6658,13 +6658,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6771,28 +6771,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D34" t="n">
-        <v>656.964603115002</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942651</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
@@ -6880,25 +6880,25 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W34" t="n">
         <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y34" t="n">
         <v>1084.076049400516</v>
@@ -6917,37 +6917,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319329</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656823</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
@@ -7093,13 +7093,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954148</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7114,13 +7114,13 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
@@ -7129,7 +7129,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
         <v>1483.798285518751</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7339,7 +7339,7 @@
         <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N40" t="n">
         <v>1785.769117656414</v>
@@ -7354,7 +7354,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
         <v>2438.456847547834</v>
@@ -7363,16 +7363,16 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
         <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
         <v>1084.076049400516</v>
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192832</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111739</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075831</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797191</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797191</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797191</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7549,10 +7549,10 @@
         <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F43" t="n">
         <v>411.2214559580113</v>
@@ -7564,7 +7564,7 @@
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>198.0944824954151</v>
@@ -7582,13 +7582,13 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382517</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973195</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
         <v>2596.781734931273</v>
@@ -7597,10 +7597,10 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7725,28 +7725,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319317</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656811</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150018</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942649</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580109</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345468</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380724</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311317</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
       </c>
       <c r="N46" t="n">
-        <v>1785.769117656413</v>
+        <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
         <v>2179.340199382518</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973195</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931272</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547833</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
   </sheetData>
@@ -22544,28 +22544,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>352.9961612166815</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>237.6489796867191</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22705,22 +22705,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>28.11388776382062</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -22753,10 +22753,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>163.2439038582785</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -22771,7 +22771,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>114.1584408891657</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>68.29586847696697</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23549,13 +23549,13 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>58.61468062667804</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>104.8770068749576</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23899,16 +23899,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,10 +23938,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>59.62759525031606</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>84.77391660561949</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24139,10 +24139,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>31.20374480898987</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24601,22 +24601,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>41.54258064659096</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24835,13 +24835,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>107.2784330767827</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25078,7 +25078,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>-2.557953848736361e-13</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1246147.163652567</v>
+        <v>1246147.163652568</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1246147.163652567</v>
+        <v>1246147.163652568</v>
       </c>
     </row>
     <row r="12">
@@ -26314,31 +26314,31 @@
         <v>152326.9268048896</v>
       </c>
       <c r="C2" t="n">
-        <v>184734.3982194639</v>
+        <v>184734.3982194638</v>
       </c>
       <c r="D2" t="n">
-        <v>184734.3982194639</v>
+        <v>184734.3982194638</v>
       </c>
       <c r="E2" t="n">
         <v>181607.9849302513</v>
       </c>
       <c r="F2" t="n">
-        <v>181607.9849302512</v>
+        <v>181607.9849302513</v>
       </c>
       <c r="G2" t="n">
-        <v>181607.9849302512</v>
+        <v>181607.9849302514</v>
       </c>
       <c r="H2" t="n">
         <v>181607.9849302514</v>
       </c>
       <c r="I2" t="n">
-        <v>181607.9849302514</v>
+        <v>181607.9849302513</v>
       </c>
       <c r="J2" t="n">
         <v>181607.9849302514</v>
       </c>
       <c r="K2" t="n">
-        <v>181607.9849302514</v>
+        <v>181607.9849302513</v>
       </c>
       <c r="L2" t="n">
         <v>184734.3982194636</v>
@@ -26350,7 +26350,7 @@
         <v>184734.3982194637</v>
       </c>
       <c r="O2" t="n">
-        <v>184734.3982194637</v>
+        <v>184734.3982194636</v>
       </c>
       <c r="P2" t="n">
         <v>184734.3982194636</v>
@@ -26369,13 +26369,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>325412.4618073549</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>19427.71799363176</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551181</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.549101398268249e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11387.33216691505</v>
+        <v>11387.33216691514</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.74410405249</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="E4" t="n">
         <v>16046.58397189197</v>
@@ -26436,28 +26436,28 @@
         <v>16046.58397189197</v>
       </c>
       <c r="I4" t="n">
-        <v>16046.583971892</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="J4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="K4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189201</v>
       </c>
       <c r="L4" t="n">
-        <v>24037.44323498542</v>
+        <v>24037.4432349855</v>
       </c>
       <c r="M4" t="n">
+        <v>24037.44323498546</v>
+      </c>
+      <c r="N4" t="n">
+        <v>24037.44323498544</v>
+      </c>
+      <c r="O4" t="n">
         <v>24037.44323498545</v>
       </c>
-      <c r="N4" t="n">
-        <v>24037.44323498543</v>
-      </c>
-      <c r="O4" t="n">
-        <v>24037.44323498539</v>
-      </c>
       <c r="P4" t="n">
-        <v>24037.44323498544</v>
+        <v>24037.44323498545</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1295739.091651011</v>
+        <v>-1296099.174666729</v>
       </c>
       <c r="C6" t="n">
-        <v>-16796.28644598191</v>
+        <v>-16796.286445982</v>
       </c>
       <c r="D6" t="n">
-        <v>-16796.28644598214</v>
+        <v>-16796.28644598203</v>
       </c>
       <c r="E6" t="n">
-        <v>-260973.5906729028</v>
+        <v>-261008.3285983384</v>
       </c>
       <c r="F6" t="n">
-        <v>64438.87113445214</v>
+        <v>64404.13320901633</v>
       </c>
       <c r="G6" t="n">
-        <v>64438.87113445213</v>
+        <v>64404.13320901661</v>
       </c>
       <c r="H6" t="n">
-        <v>64438.8711344523</v>
+        <v>64404.13320901661</v>
       </c>
       <c r="I6" t="n">
-        <v>64438.87113445227</v>
+        <v>64404.13320901649</v>
       </c>
       <c r="J6" t="n">
-        <v>-153092.3312628252</v>
+        <v>-153127.0691882608</v>
       </c>
       <c r="K6" t="n">
-        <v>64438.8711344523</v>
+        <v>64404.13320901648</v>
       </c>
       <c r="L6" t="n">
-        <v>38105.12113693106</v>
+        <v>38105.12113693093</v>
       </c>
       <c r="M6" t="n">
-        <v>-27522.18880494904</v>
+        <v>-27522.18880494911</v>
       </c>
       <c r="N6" t="n">
-        <v>57532.8391305629</v>
+        <v>57532.83913056285</v>
       </c>
       <c r="O6" t="n">
-        <v>57532.8391305627</v>
+        <v>57532.83913056276</v>
       </c>
       <c r="P6" t="n">
-        <v>57532.83913056279</v>
+        <v>57532.83913056273</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>24.2846474920397</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26826,7 +26826,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26938,13 +26938,13 @@
         <v>24.2846474920397</v>
       </c>
       <c r="M2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26963,13 +26963,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27506,7 +27506,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27546,10 +27546,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27585,10 +27585,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>155.318062171672</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>190.950007170284</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,16 +27664,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>94.75894269315924</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>336.3649071132039</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27752,7 +27752,7 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1.076104664234833</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27783,7 +27783,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27828,19 +27828,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>186.0055278181906</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>213.1539192908518</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27862,13 +27862,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>240.1912326468608</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>64.81814676751823</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28023,7 +28023,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>112.4784535852599</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28074,10 +28074,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -29104,7 +29104,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -29518,7 +29518,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29800,7 +29800,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="41">
@@ -30469,7 +30469,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
   </sheetData>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31522,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.512347035315</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31674,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31750,37 +31750,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31789,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,40 +31835,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32072,34 +32072,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N15" t="n">
-        <v>754.000239683233</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,34 +32309,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32467,7 +32467,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32479,7 +32479,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N20" t="n">
         <v>981.2715114159425</v>
@@ -32546,34 +32546,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,34 +32783,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32941,7 +32941,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -32968,7 +32968,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S26" t="n">
         <v>125.31755462929</v>
@@ -33023,31 +33023,31 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33178,7 +33178,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33257,13 +33257,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33275,10 +33275,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33494,13 +33494,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33512,10 +33512,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33731,34 +33731,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067255</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34205,34 +34205,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34445,13 +34445,13 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34460,16 +34460,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.670908060956</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K10" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M10" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014223</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35574,19 +35574,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N15" t="n">
-        <v>622.6585275998997</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,7 +36115,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36127,7 +36127,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36589,7 +36589,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36616,7 +36616,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36826,7 +36826,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36905,13 +36905,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36923,10 +36923,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37142,13 +37142,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37160,10 +37160,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
         <v>288.6172359016746</v>
@@ -37716,7 +37716,7 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
         <v>144.686904791938</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236319604</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,19 +37938,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
@@ -38093,13 +38093,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38108,16 +38108,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,25 +38175,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
